--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,121 +67,82 @@
     <t>evil</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>fake</t>
+    <t>shit</t>
   </si>
   <si>
     <t>sad</t>
@@ -208,12 +169,12 @@
     <t>social</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
@@ -223,115 +184,82 @@
     <t>powerful</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>became</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>v</t>
+    <t>started</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>doc</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
     <t>[UNK]</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -713,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS51"/>
+  <dimension ref="A1:BS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,28 +649,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AK1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="AT1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="BC1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="BL1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -944,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03763708976168342</v>
+        <v>0.03715399246058573</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -962,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>0.1278013478397407</v>
+        <v>0.1349213521679327</v>
       </c>
       <c r="L3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -986,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04462983490458162</v>
+        <v>0.04403793236026684</v>
       </c>
       <c r="U3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1010,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AC3">
-        <v>0.06831779269471422</v>
+        <v>0.08003359074063934</v>
       </c>
       <c r="AD3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1034,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05485000088266359</v>
+        <v>0.05409907529057</v>
       </c>
       <c r="AM3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AN3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1058,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AU3">
-        <v>0.0515393616719288</v>
+        <v>0.06239829754371195</v>
       </c>
       <c r="AV3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AW3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1082,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.07120226644759477</v>
+        <v>0.07019690397905505</v>
       </c>
       <c r="BE3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BF3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1106,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="BM3">
-        <v>0.04362485192800983</v>
+        <v>0.05369950949391854</v>
       </c>
       <c r="BN3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BO3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1130,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1138,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01197602283428745</v>
+        <v>0.01122931384357265</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1156,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.1030838336310522</v>
+        <v>0.111895464991562</v>
       </c>
       <c r="L4">
         <v>28</v>
@@ -1186,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01420318163359707</v>
+        <v>0.01329817299516309</v>
       </c>
       <c r="U4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1204,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AC4">
-        <v>0.05705886687789826</v>
+        <v>0.06841029357006727</v>
       </c>
       <c r="AD4">
         <v>28</v>
@@ -1234,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.01745825987874191</v>
+        <v>0.01632189021671835</v>
       </c>
       <c r="AM4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1252,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AU4">
-        <v>0.04407667830307244</v>
+        <v>0.05443862251271252</v>
       </c>
       <c r="AV4">
         <v>28</v>
@@ -1282,13 +1210,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02266638507097365</v>
+        <v>0.02115983777120677</v>
       </c>
       <c r="BE4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BF4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1300,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="BM4">
-        <v>0.03795288413940365</v>
+        <v>0.04754695341074731</v>
       </c>
       <c r="BN4">
         <v>28</v>
@@ -1332,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.009375156280690284</v>
+        <v>0.009471863582585796</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1353,10 +1281,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.09635301720646297</v>
+        <v>0.1045861319744468</v>
       </c>
       <c r="L5">
         <v>26</v>
@@ -1380,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.01099540696742518</v>
+        <v>0.01111044852652277</v>
       </c>
       <c r="U5">
         <v>21</v>
@@ -1401,10 +1329,10 @@
         <v>14</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AC5">
-        <v>0.05442520019588214</v>
+        <v>0.06524778482337874</v>
       </c>
       <c r="AD5">
         <v>26</v>
@@ -1428,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01336346566342235</v>
+        <v>0.0135053034445845</v>
       </c>
       <c r="AM5">
         <v>21</v>
@@ -1449,10 +1377,10 @@
         <v>14</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AU5">
-        <v>0.04259868807950238</v>
+        <v>0.0526084774832432</v>
       </c>
       <c r="AV5">
         <v>26</v>
@@ -1476,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.01715235957701781</v>
+        <v>0.01733707131348328</v>
       </c>
       <c r="BE5">
         <v>21</v>
@@ -1497,10 +1425,10 @@
         <v>14</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="BM5">
-        <v>0.03702003503056405</v>
+        <v>0.04637401035982767</v>
       </c>
       <c r="BN5">
         <v>26</v>
@@ -1526,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.005554962792295524</v>
+        <v>0.006046949151333497</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1544,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.08571838051978838</v>
+        <v>0.104474102573934</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1568,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.006569000092672028</v>
+        <v>0.007162433520168812</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1592,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AC6">
-        <v>0.04952705011618388</v>
+        <v>0.0650298490141434</v>
       </c>
       <c r="AD6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1616,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008051054608606922</v>
+        <v>0.008792756828466582</v>
       </c>
       <c r="AM6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1640,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AU6">
-        <v>0.03931861957905105</v>
+        <v>0.05235651422379509</v>
       </c>
       <c r="AV6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1664,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01042234183410275</v>
+        <v>0.01140127412174301</v>
       </c>
       <c r="BE6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -1688,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="BM6">
-        <v>0.03450322755303042</v>
+        <v>0.04610526271386724</v>
       </c>
       <c r="BN6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BO6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1712,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1720,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.004268690940290765</v>
+        <v>0.004315209201981333</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1738,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.05453925591140598</v>
+        <v>0.05918412814467938</v>
       </c>
       <c r="L7">
         <v>14</v>
@@ -1768,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005032379527356743</v>
+        <v>0.00509683303179326</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -1786,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AC7">
-        <v>0.03610828264568884</v>
+        <v>0.04326521817579969</v>
       </c>
       <c r="AD7">
         <v>14</v>
@@ -1816,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.006148539769991634</v>
+        <v>0.006239206321518386</v>
       </c>
       <c r="AM7">
         <v>9</v>
@@ -1834,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AU7">
-        <v>0.03090948756917276</v>
+        <v>0.03815051432604337</v>
       </c>
       <c r="AV7">
         <v>14</v>
@@ -1864,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.007934396158207461</v>
+        <v>0.008067003585078586</v>
       </c>
       <c r="BE7">
         <v>9</v>
@@ -1882,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="BM7">
-        <v>0.02845717756272176</v>
+        <v>0.03562763454005578</v>
       </c>
       <c r="BN7">
         <v>14</v>
@@ -1914,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00341031810411827</v>
+        <v>0.003442911649396579</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1932,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.04174094984879034</v>
+        <v>0.04912137992679135</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1956,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.00400388904334227</v>
+        <v>0.004033501792539293</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1980,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AC8">
-        <v>0.02532318185720992</v>
+        <v>0.03203420546185126</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2004,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004871415800669656</v>
+        <v>0.004896672001747875</v>
       </c>
       <c r="AM8">
         <v>7</v>
@@ -2028,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AU8">
-        <v>0.02397834578286453</v>
+        <v>0.03064437316205054</v>
       </c>
       <c r="AV8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2052,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.006259458612393472</v>
+        <v>0.006277744336481607</v>
       </c>
       <c r="BE8">
         <v>7</v>
@@ -2076,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="BM8">
-        <v>0.0233439766812527</v>
+        <v>0.02995882421961334</v>
       </c>
       <c r="BN8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2100,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2108,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002992718306317878</v>
+        <v>0.003023474575666749</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2129,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.03009094772761281</v>
+        <v>0.03635989388923164</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2150,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003544680247692845</v>
+        <v>0.003581216760084406</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2177,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC9">
-        <v>0.02517738954079853</v>
+        <v>0.03032218960296579</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2198,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004351393854317796</v>
+        <v>0.004396378414233291</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2225,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AU9">
-        <v>0.02381479452669588</v>
+        <v>0.02957812269164702</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2246,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.00564213562491772</v>
+        <v>0.005700637060871506</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2273,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="BM9">
-        <v>0.02317204840213359</v>
+        <v>0.02921110410657726</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2294,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2302,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00299014350180991</v>
+        <v>0.00302090354450328</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2323,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.03000811510456809</v>
+        <v>0.03263800974036638</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2344,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003532449926279998</v>
+        <v>0.00356900436205793</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -2371,16 +2299,16 @@
         <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AC10">
-        <v>0.02378766004158476</v>
+        <v>0.02921803551419295</v>
       </c>
       <c r="AD10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2392,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004325051623582434</v>
+        <v>0.004370074787714726</v>
       </c>
       <c r="AM10">
         <v>6</v>
@@ -2419,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AU10">
-        <v>0.02299402378682652</v>
+        <v>0.02836069426557462</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2446,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005593214339266332</v>
+        <v>0.0056517874687656</v>
       </c>
       <c r="BE10">
         <v>6</v>
@@ -2467,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="BM10">
-        <v>0.02261965970815423</v>
+        <v>0.02830213540596491</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2496,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002564819290485614</v>
+        <v>0.002591182346119575</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2517,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.0266012905807511</v>
+        <v>0.02884890795119346</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2544,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003036550166392032</v>
+        <v>0.003067869737497138</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2565,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AC11">
-        <v>0.02378766004158476</v>
+        <v>0.0284794122585391</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2592,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003726002985024487</v>
+        <v>0.003764566694125884</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2613,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AU11">
-        <v>0.02299402378682652</v>
+        <v>0.02836069426557462</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2640,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004829127494836418</v>
+        <v>0.004879281824731877</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2661,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="BM11">
-        <v>0.02261965970815423</v>
+        <v>0.02830213540596491</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2690,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00213692027465335</v>
+        <v>0.002138321867264651</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2708,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.0266012905807511</v>
+        <v>0.02884890795119346</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2738,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002528420085091219</v>
+        <v>0.002456823530698057</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2756,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AC12">
-        <v>0.02279532878653813</v>
+        <v>0.0284794122585391</v>
       </c>
       <c r="AD12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2780,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003100612115731179</v>
+        <v>0.002922325961869957</v>
       </c>
       <c r="AM12">
         <v>4</v>
@@ -2804,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AU12">
-        <v>0.01995928217062817</v>
+        <v>0.02587544476154022</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2828,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004016119364755118</v>
+        <v>0.003667129851744999</v>
       </c>
       <c r="BE12">
         <v>4</v>
@@ -2852,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="BM12">
-        <v>0.02036074464929927</v>
+        <v>0.02643044847554813</v>
       </c>
       <c r="BN12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2876,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2884,38 +2812,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002116321838589608</v>
+        <v>0.001726597887025227</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>0.02124829849274507</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13">
-        <v>0.0160909028286436</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -2926,44 +2854,44 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002430577513788445</v>
+        <v>0.0020411756923226</v>
       </c>
       <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13">
+        <v>0.02475027040783865</v>
+      </c>
+      <c r="AD13">
         <v>4</v>
       </c>
-      <c r="V13">
+      <c r="AE13">
         <v>4</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>8</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13">
-        <v>0.01910819843650361</v>
-      </c>
-      <c r="AD13">
-        <v>3</v>
-      </c>
-      <c r="AE13">
-        <v>3</v>
-      </c>
       <c r="AF13">
         <v>1</v>
       </c>
@@ -2974,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.002889874269848282</v>
+        <v>0.002500943253911067</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2998,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU13">
-        <v>0.019918394356586</v>
+        <v>0.02400291186090275</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3022,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.003624749079544022</v>
+        <v>0.003236571352452615</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3046,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="BM13">
-        <v>0.02031776257951949</v>
+        <v>0.02482273589543863</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3070,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3078,7 +3006,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001709021258821087</v>
+        <v>0.001726597887025227</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3099,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.01607019467288242</v>
+        <v>0.01716792026223894</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3120,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002020290003790405</v>
+        <v>0.0020411756923226</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3147,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AC14">
-        <v>0.01907175035740076</v>
+        <v>0.02234085995940003</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3168,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.002475221246437871</v>
+        <v>0.002500943253911067</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3195,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU14">
-        <v>0.01905673580267449</v>
+        <v>0.02349098056128506</v>
       </c>
       <c r="AV14">
         <v>2</v>
@@ -3222,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.003203111234673816</v>
+        <v>0.003236571352452615</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3243,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="BM14">
-        <v>0.01972239181576035</v>
+        <v>0.02466626060351552</v>
       </c>
       <c r="BN14">
         <v>2</v>
@@ -3272,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001709021258821087</v>
+        <v>0.001724026855861758</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3290,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.01264266199330426</v>
+        <v>0.01369250079450178</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3320,7 +3248,7 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002020290003790405</v>
+        <v>0.002028963294296123</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3338,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AC15">
-        <v>0.01764557277908415</v>
+        <v>0.02110830288083234</v>
       </c>
       <c r="AD15">
         <v>2</v>
@@ -3368,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002475221246437871</v>
+        <v>0.002474639627392502</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3386,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AU15">
-        <v>0.01905673580267449</v>
+        <v>0.02339019525750581</v>
       </c>
       <c r="AV15">
         <v>2</v>
@@ -3410,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003203111234673816</v>
+        <v>0.00318772176034671</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3434,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="BM15">
-        <v>0.01972239181576035</v>
+        <v>0.02455876154513134</v>
       </c>
       <c r="BN15">
         <v>2</v>
@@ -3458,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3466,7 +3394,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001706446454313119</v>
+        <v>0.001724026855861758</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3487,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.01264266199330426</v>
+        <v>0.01364768903429667</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3508,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002008059682377559</v>
+        <v>0.002028963294296123</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3535,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AC16">
-        <v>0.01764557277908415</v>
+        <v>0.0210211285571382</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -3556,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002448879015702509</v>
+        <v>0.002474639627392502</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3583,10 +3511,10 @@
         <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AU16">
-        <v>0.01905673580267449</v>
+        <v>0.02339019525750581</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -3604,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.00315418994902243</v>
+        <v>0.00318772176034671</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3631,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="BM16">
-        <v>0.01972239181576035</v>
+        <v>0.02455876154513134</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3652,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3660,13 +3588,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001706446454313119</v>
+        <v>0.001294305657478053</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3678,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.01264266199330426</v>
+        <v>0.01364768903429667</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3702,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002008059682377559</v>
+        <v>0.001527828669735331</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3726,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AC17">
-        <v>0.01764557277908415</v>
+        <v>0.0210211285571382</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3750,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002448879015702509</v>
+        <v>0.001869131533803659</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3774,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AU17">
-        <v>0.01905673580267449</v>
+        <v>0.02328940995372657</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3798,19 +3726,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.00315418994902243</v>
+        <v>0.002415216116312985</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3822,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BM17">
-        <v>0.01972239181576035</v>
+        <v>0.02445126248674717</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3846,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3854,13 +3782,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001706446454313119</v>
+        <v>0.001291734626314584</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3875,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.01264266199330426</v>
+        <v>0.01360287727409156</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3896,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002008059682377559</v>
+        <v>0.001515616271708854</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3923,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC18">
-        <v>0.01764557277908415</v>
+        <v>0.02093395423344405</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3944,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.002448879015702509</v>
+        <v>0.001842827907285095</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3971,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AU18">
-        <v>0.01897496017459016</v>
+        <v>0.02328940995372657</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -3992,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.00315418994902243</v>
+        <v>0.00236636652420708</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -4019,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="BM18">
-        <v>0.0196364276762008</v>
+        <v>0.02445126248674717</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4040,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4048,7 +3976,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001281122242988823</v>
+        <v>0.001291734626314584</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4066,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.01260124568178189</v>
+        <v>0.01360287727409156</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4090,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001512159922489592</v>
+        <v>0.001515616271708854</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4114,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AC19">
-        <v>0.01757267662087845</v>
+        <v>0.02093395423344405</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4138,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001849830377144563</v>
+        <v>0.001842827907285095</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4162,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AU19">
-        <v>0.01897496017459016</v>
+        <v>0.02293666139049923</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4186,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002390103104592515</v>
+        <v>0.00236636652420708</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4210,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="BM19">
-        <v>0.0196364276762008</v>
+        <v>0.02407501578240255</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4234,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4242,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001281122242988823</v>
+        <v>0.001289163595151116</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4260,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.01260124568178189</v>
+        <v>0.01344603611337369</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4284,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001512159922489592</v>
+        <v>0.001503403873682378</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4308,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AC20">
-        <v>0.01757267662087845</v>
+        <v>0.02062884410051455</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4332,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001849830377144563</v>
+        <v>0.00181652428076653</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4356,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AU20">
-        <v>0.01844341859204203</v>
+        <v>0.02282314337087698</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -4380,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002390103104592515</v>
+        <v>0.002317516932101174</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4404,19 +4332,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="BM20">
-        <v>0.01907766076906368</v>
+        <v>0.02375729190290318</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4428,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4436,7 +4364,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001281122242988823</v>
+        <v>0.001289163595151116</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4454,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.01233203965688652</v>
+        <v>0.01313235379193793</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4478,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001512159922489592</v>
+        <v>0.001503403873682378</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4502,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AC21">
-        <v>0.01709885159254142</v>
+        <v>0.02001862383465555</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4526,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001849830377144563</v>
+        <v>0.00181652428076653</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4550,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AU21">
-        <v>0.01807241380663648</v>
+        <v>0.02227355213521267</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4580,7 +4508,7 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002390103104592515</v>
+        <v>0.002317516932101174</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4598,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="BM21">
-        <v>0.01899807484266188</v>
+        <v>0.02375729190290318</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4630,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001281122242988823</v>
+        <v>0.001286592563987647</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4648,19 +4576,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.009153004846442546</v>
+        <v>0.01149672454445149</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4672,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001512159922489592</v>
+        <v>0.001491191475655901</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4696,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AC22">
-        <v>0.01611005096345899</v>
+        <v>0.01926552553640565</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4726,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001849830377144563</v>
+        <v>0.001790220654247965</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4744,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AU22">
-        <v>0.01807241380663648</v>
+        <v>0.02227355213521267</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4774,7 +4702,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002390103104592515</v>
+        <v>0.002268667339995268</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4792,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="BM22">
-        <v>0.01899807484266188</v>
+        <v>0.02370354237371108</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4816,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4824,7 +4752,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001281122242988823</v>
+        <v>0.001278879470497241</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4842,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.009153004846442546</v>
+        <v>0.009903399005328857</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4872,7 +4800,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001512159922489592</v>
+        <v>0.001454554281576472</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4890,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AC23">
-        <v>0.01611005096345899</v>
+        <v>0.01926552553640565</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4920,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001849830377144563</v>
+        <v>0.001711309774692271</v>
       </c>
       <c r="AM23">
         <v>2</v>
@@ -4938,19 +4866,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AU23">
-        <v>0.01807241380663648</v>
+        <v>0.02223116426404452</v>
       </c>
       <c r="AV23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4962,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002390103104592515</v>
+        <v>0.00212211856367755</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -4986,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="BM23">
-        <v>0.01899807484266188</v>
+        <v>0.02370354237371108</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5010,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5018,7 +4946,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001281122242988823</v>
+        <v>0.00126088225235296</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5036,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.009153004846442546</v>
+        <v>0.009903399005328857</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5066,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001512159922489592</v>
+        <v>0.001369067495391136</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5084,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AC24">
-        <v>0.01611005096345899</v>
+        <v>0.01922193837455858</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5108,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001849830377144563</v>
+        <v>0.001527184389062318</v>
       </c>
       <c r="AM24">
         <v>2</v>
@@ -5132,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AU24">
-        <v>0.01807241380663648</v>
+        <v>0.02222315948332305</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5156,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002390103104592515</v>
+        <v>0.001780171418936209</v>
       </c>
       <c r="BE24">
         <v>2</v>
@@ -5180,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="BM24">
-        <v>0.01899807484266188</v>
+        <v>0.02370354237371108</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5204,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5212,13 +5140,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.001281122242988823</v>
+        <v>0.000862013427930879</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5233,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.009153004846442546</v>
+        <v>0.009880993125226304</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5254,19 +5182,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001512159922489592</v>
+        <v>0.001014481647148062</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5281,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AC25">
-        <v>0.01611005096345899</v>
+        <v>0.01922193837455858</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5302,19 +5230,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001849830377144563</v>
+        <v>0.001237319813696251</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5329,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AU25">
-        <v>0.01807241380663648</v>
+        <v>0.02222315948332305</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5350,19 +5278,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002390103104592515</v>
+        <v>0.001593860880173355</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5377,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BM25">
-        <v>0.01899807484266188</v>
+        <v>0.023649792844519</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5398,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5406,13 +5334,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001281122242988823</v>
+        <v>0.000862013427930879</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5427,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.009153004846442546</v>
+        <v>0.009880993125226304</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5448,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001512159922489592</v>
+        <v>0.001014481647148062</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5475,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AC26">
-        <v>0.01611005096345899</v>
+        <v>0.01922193837455858</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5496,19 +5424,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001849830377144563</v>
+        <v>0.001237319813696251</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5523,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AU26">
-        <v>0.01807241380663648</v>
+        <v>0.02222315948332305</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5544,19 +5472,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002390103104592515</v>
+        <v>0.001593860880173355</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5571,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="BM26">
-        <v>0.01899807484266188</v>
+        <v>0.023649792844519</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5592,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5600,13 +5528,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001278547438480855</v>
+        <v>0.000862013427930879</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5618,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.009153004846442546</v>
+        <v>0.009880993125226304</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5642,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001499929601076746</v>
+        <v>0.001014481647148062</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5666,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AC27">
-        <v>0.01611005096345899</v>
+        <v>0.0191783512127115</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5690,19 +5618,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001823488146409201</v>
+        <v>0.001237319813696251</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5714,13 +5642,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AU27">
-        <v>0.01807241380663648</v>
+        <v>0.02217276683143343</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5738,19 +5666,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.002341181818941129</v>
+        <v>0.001593860880173355</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5762,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="BM27">
-        <v>0.01899807484266188</v>
+        <v>0.023649792844519</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5786,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5794,13 +5722,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.001278547438480855</v>
+        <v>0.0008594423967674104</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5815,10 +5743,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.009153004846442546</v>
+        <v>0.00985858724512375</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5836,19 +5764,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001499929601076746</v>
+        <v>0.001002269249121585</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5863,10 +5791,10 @@
         <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AC28">
-        <v>0.01611005096345899</v>
+        <v>0.0191783512127115</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5884,19 +5812,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001823488146409201</v>
+        <v>0.001211016187177686</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5911,10 +5839,10 @@
         <v>1</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AU28">
-        <v>0.01807241380663648</v>
+        <v>0.02217276683143343</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5932,19 +5860,19 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.002341181818941129</v>
+        <v>0.001545011288067449</v>
       </c>
       <c r="BE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -5959,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="BM28">
-        <v>0.01899807484266188</v>
+        <v>0.02354229378613482</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5980,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5988,13 +5916,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001275972633972888</v>
+        <v>0.0008594423967674104</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6006,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.009153004846442546</v>
+        <v>0.00985858724512375</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6030,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001487699279663899</v>
+        <v>0.001002269249121585</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -6054,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AC29">
-        <v>0.01611005096345899</v>
+        <v>0.0191783512127115</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6078,19 +6006,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001797145915673838</v>
+        <v>0.001211016187177686</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -6102,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AU29">
-        <v>0.01807241380663648</v>
+        <v>0.02217276683143343</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6126,19 +6054,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.002292260533289742</v>
+        <v>0.001545011288067449</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -6150,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="BM29">
-        <v>0.01899807484266188</v>
+        <v>0.02354229378613482</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6174,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6182,13 +6110,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.001247649784385243</v>
+        <v>0.0008594423967674104</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6200,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.009153004846442546</v>
+        <v>0.00985858724512375</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6224,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001353165744122585</v>
+        <v>0.001002269249121585</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -6248,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AC30">
-        <v>0.01611005096345899</v>
+        <v>0.01909117688901736</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6272,19 +6200,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001507381377584854</v>
+        <v>0.001211016187177686</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6296,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AU30">
-        <v>0.01807241380663648</v>
+        <v>0.02207198152765419</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6320,19 +6248,19 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001754126391124486</v>
+        <v>0.001545011288067449</v>
       </c>
       <c r="BE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -6344,13 +6272,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="BM30">
-        <v>0.01899807484266188</v>
+        <v>0.02354229378613482</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6368,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6376,7 +6304,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008532232271565595</v>
+        <v>0.0008594423967674104</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6394,13 +6322,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.009153004846442546</v>
+        <v>0.00981377548491864</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6418,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001004029841188779</v>
+        <v>0.001002269249121585</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6442,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AC31">
-        <v>0.01611005096345899</v>
+        <v>0.01909117688901736</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6466,13 +6394,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001224439507851254</v>
+        <v>0.001211016187177686</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6490,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AU31">
-        <v>0.01807241380663648</v>
+        <v>0.02207198152765419</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6514,13 +6442,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001577094974511215</v>
+        <v>0.001545011288067449</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6538,13 +6466,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="BM31">
-        <v>0.01899807484266188</v>
+        <v>0.02332729566936646</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6562,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6570,7 +6498,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008532232271565595</v>
+        <v>0.0008568713656039416</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6588,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.009153004846442546</v>
+        <v>0.00981377548491864</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6612,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001004029841188779</v>
+        <v>0.0009900568510951085</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6636,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AC32">
-        <v>0.01611005096345899</v>
+        <v>0.01909117688901736</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6660,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001224439507851254</v>
+        <v>0.001184712560659122</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6684,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AU32">
-        <v>0.01807241380663648</v>
+        <v>0.02207198152765419</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6708,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001577094974511215</v>
+        <v>0.001496161695961543</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6732,19 +6660,19 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="BM32">
-        <v>0.01899807484266188</v>
+        <v>0.02332252237371331</v>
       </c>
       <c r="BN32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP32">
         <v>1</v>
@@ -6756,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6764,7 +6692,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008532232271565595</v>
+        <v>0.0008568713656039416</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6782,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.009153004846442546</v>
+        <v>0.00981377548491864</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6806,13 +6734,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001004029841188779</v>
+        <v>0.0009900568510951085</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6830,13 +6758,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AC33">
-        <v>0.01611005096345899</v>
+        <v>0.01891682824162908</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6854,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001224439507851254</v>
+        <v>0.001184712560659122</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6878,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AU33">
-        <v>0.01807241380663648</v>
+        <v>0.0218704109200957</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6902,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001577094974511215</v>
+        <v>0.001496161695961543</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6926,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="BM33">
-        <v>0.01899807484266188</v>
+        <v>0.02321979661098229</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6950,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6958,7 +6886,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0008532232271565595</v>
+        <v>0.0008543003344404728</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6976,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.009153004846442546</v>
+        <v>0.009724151964508427</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7000,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001004029841188779</v>
+        <v>0.0009778444530686319</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7024,13 +6952,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AC34">
-        <v>0.01611005096345899</v>
+        <v>0.01882965391793493</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7048,13 +6976,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001224439507851254</v>
+        <v>0.001158408934140557</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7072,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AU34">
-        <v>0.01803152599259431</v>
+        <v>0.02176962561631646</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7096,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001577094974511215</v>
+        <v>0.001447312103855637</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7120,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="BM34">
-        <v>0.01895509277288211</v>
+        <v>0.02295104896502185</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7144,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7152,7 +7080,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0008532232271565595</v>
+        <v>0.0008517293032770041</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7170,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.009132296690681363</v>
+        <v>0.009679340204303317</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7194,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001004029841188779</v>
+        <v>0.0009656320550421556</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7218,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AC35">
-        <v>0.01607360288435615</v>
+        <v>0.01861171810869958</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7242,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001224439507851254</v>
+        <v>0.001132105307621992</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7266,13 +7194,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AU35">
-        <v>0.01803152599259431</v>
+        <v>0.02151766235686835</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7290,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001577094974511215</v>
+        <v>0.001398462511749731</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7314,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="BM35">
-        <v>0.01895509277288211</v>
+        <v>0.02273605084825349</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7338,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7346,7 +7274,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0008532232271565595</v>
+        <v>0.0008491582721135354</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7364,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.009132296690681363</v>
+        <v>0.009567310803790549</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7388,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001004029841188779</v>
+        <v>0.0009534196570156791</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7412,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AC36">
-        <v>0.01607360288435615</v>
+        <v>0.01843736946131129</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7436,13 +7364,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001224439507851254</v>
+        <v>0.001105801681103428</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7460,13 +7388,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AU36">
-        <v>0.01803152599259431</v>
+        <v>0.02131609174930986</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7484,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001577094974511215</v>
+        <v>0.001349612919643825</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7508,13 +7436,13 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="BM36">
-        <v>0.01895509277288211</v>
+        <v>0.02257480226067722</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7532,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7540,7 +7468,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0008532232271565595</v>
+        <v>0.0008465872409500666</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7558,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.009132296690681363</v>
+        <v>0.009477687283380332</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7582,13 +7510,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001004029841188779</v>
+        <v>0.0009412072589892026</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7606,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AC37">
-        <v>0.01607360288435615</v>
+        <v>0.01830660797577007</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7630,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001224439507851254</v>
+        <v>0.001079498054584863</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7654,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AU37">
-        <v>0.01803152599259431</v>
+        <v>0.021164913793641</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7678,13 +7606,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="BC37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001577094974511215</v>
+        <v>0.001300763327537919</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7702,19 +7630,19 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="BM37">
-        <v>0.01895509277288211</v>
+        <v>0.01966879766565861</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BP37">
         <v>1</v>
@@ -7726,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -7734,7 +7662,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0008532232271565595</v>
+        <v>0.0008440162097865979</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7752,13 +7680,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.009132296690681363</v>
+        <v>0.009410469643072671</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7776,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T38">
-        <v>0.001004029841188779</v>
+        <v>0.0009289948609627261</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7800,19 +7728,19 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AC38">
-        <v>0.01607360288435615</v>
+        <v>0.01683676101981932</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -7824,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AL38">
-        <v>0.001224439507851254</v>
+        <v>0.001053194428066298</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7848,19 +7776,19 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="AU38">
-        <v>0.01799063817855215</v>
+        <v>0.01855250067610216</v>
       </c>
       <c r="AV38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX38">
         <v>1</v>
@@ -7872,13 +7800,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="BC38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BD38">
-        <v>0.001577094974511215</v>
+        <v>0.001251913735432013</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7896,13 +7824,13 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="BM38">
-        <v>0.01891211070310233</v>
+        <v>0.01945732956753608</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7920,39 +7848,15 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008532232271565595</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.009111588534920181</v>
+        <v>0.008110928597124541</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7970,37 +7874,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.001004029841188779</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AC39">
-        <v>0.0160371548052533</v>
+        <v>0.01577855258863992</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8018,37 +7898,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001224439507851254</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="AU39">
-        <v>0.01799063817855215</v>
+        <v>0.01824213998404296</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8066,43 +7922,19 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>2</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001577094974511215</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="BM39">
-        <v>0.01891211070310233</v>
+        <v>0.01939880674269083</v>
       </c>
       <c r="BN39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP39">
         <v>1</v>
@@ -8114,39 +7946,15 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008532232271565595</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.009111588534920181</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8164,37 +7972,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.001004029841188779</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AC40">
-        <v>0.0160371548052533</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8212,37 +7996,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001224439507851254</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AU40">
-        <v>0.01794975036450998</v>
+        <v>0</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8260,37 +8020,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>3</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001577094974511215</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="BM40">
-        <v>0.01886912863332255</v>
+        <v>0</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8308,2140 +8044,6 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008506484226485918</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K41">
-        <v>0.009090880379158998</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009917995197759324</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC41">
-        <v>0.01600070672615045</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>3</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001198097277115892</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU41">
-        <v>0.01794975036450998</v>
-      </c>
-      <c r="AV41">
-        <v>1</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>3</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001528173688859828</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>1</v>
-      </c>
-      <c r="BL41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM41">
-        <v>0.01886912863332255</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BP41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008506484226485918</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K42">
-        <v>0.009090880379158998</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009917995197759324</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC42">
-        <v>0.01600070672615045</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>3</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001198097277115892</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU42">
-        <v>0.01790886255046782</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>4</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001528173688859828</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>1</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM42">
-        <v>0.01882614656354277</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008506484226485918</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K43">
-        <v>0.009070172223397815</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>4</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009917995197759324</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC43">
-        <v>0.0159642586470476</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>4</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001198097277115892</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU43">
-        <v>0.01790886255046782</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>4</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.001528173688859828</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>1</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM43">
-        <v>0.01882614656354277</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008506484226485918</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44">
-        <v>0.009070172223397815</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>4</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009917995197759324</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC44">
-        <v>0.0159642586470476</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>4</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001198097277115892</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU44">
-        <v>0.01786797473642566</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>5</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.001528173688859828</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>1</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM44">
-        <v>0.01878316449376299</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008480736181406241</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K45">
-        <v>0.009049464067636634</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>5</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009795691983630857</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>2</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC45">
-        <v>0.01592781056794475</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>5</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.00117175504638053</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>2</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU45">
-        <v>0.01754087222408834</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>13</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001479252403208441</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>2</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM45">
-        <v>0.01843930793552477</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008480736181406241</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K46">
-        <v>0.008883798821547176</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>13</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009795691983630857</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>2</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC46">
-        <v>0.01563622593512197</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>13</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.00117175504638053</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>2</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU46">
-        <v>0.01745136783124867</v>
-      </c>
-      <c r="AV46">
-        <v>12</v>
-      </c>
-      <c r="AW46">
-        <v>12</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>280</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001479252403208441</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>2</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM46">
-        <v>0.01805246930750677</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.0008454988136326563</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47">
-        <v>0.008697425419696538</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>22</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47">
-        <v>0.0009673388769502391</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>3</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC47">
-        <v>0.01530819322319633</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>22</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL47">
-        <v>0.001145412815645168</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>3</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU47">
-        <v>0.01717288189770887</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>22</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD47">
-        <v>0.001430331117557054</v>
-      </c>
-      <c r="BE47">
-        <v>1</v>
-      </c>
-      <c r="BF47">
-        <v>1</v>
-      </c>
-      <c r="BG47">
-        <v>0</v>
-      </c>
-      <c r="BH47">
-        <v>1</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>3</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM47">
-        <v>0.01555950926027964</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.0008429240091246885</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48">
-        <v>0.007496352385547967</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>80</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T48">
-        <v>0.0009551085555373923</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>4</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC48">
-        <v>0.01319420463523112</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>80</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL48">
-        <v>0.001119070584909806</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>4</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU48">
-        <v>0.01480138868326336</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>80</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD48">
-        <v>0.001381409831905667</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>1</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>4</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM48">
-        <v>0.01493058200840719</v>
-      </c>
-      <c r="BN48">
-        <v>12</v>
-      </c>
-      <c r="BO48">
-        <v>12</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:71">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.0008403492046167208</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49">
-        <v>0.007102897426085504</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>99</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T49">
-        <v>0.0009428782341245457</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC49">
-        <v>0.012501691132277</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>99</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL49">
-        <v>0.001092728354174444</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>5</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU49">
-        <v>0.01402452021646224</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>99</v>
-      </c>
-      <c r="BC49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD49">
-        <v>0.00133248854625428</v>
-      </c>
-      <c r="BE49">
-        <v>1</v>
-      </c>
-      <c r="BF49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>1</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>5</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM49">
-        <v>0.01474284993446386</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:71">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.0008351995956007853</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50">
-        <v>0.005901824391936936</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>157</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50">
-        <v>0.0009184175912988522</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>7</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC50">
-        <v>0.01038770254431179</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>157</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL50">
-        <v>0.001040043892703719</v>
-      </c>
-      <c r="AM50">
-        <v>1</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>1</v>
-      </c>
-      <c r="AQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR50">
-        <v>7</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU50">
-        <v>0.01165302700201673</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>157</v>
-      </c>
-      <c r="BC50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD50">
-        <v>0.001234645974951506</v>
-      </c>
-      <c r="BE50">
-        <v>1</v>
-      </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>1</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <v>7</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM50">
-        <v>0.01224988988723674</v>
-      </c>
-      <c r="BN50">
-        <v>1</v>
-      </c>
-      <c r="BO50">
-        <v>1</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0008351995956007853</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>7</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>442</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51">
-        <v>0.0009184175912988522</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>7</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51">
-        <v>1</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>442</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL51">
-        <v>0.001040043892703719</v>
-      </c>
-      <c r="AM51">
-        <v>1</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR51">
-        <v>7</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>442</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD51">
-        <v>0.001234645974951506</v>
-      </c>
-      <c r="BE51">
-        <v>1</v>
-      </c>
-      <c r="BF51">
-        <v>1</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>1</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ51">
-        <v>7</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM51">
-        <v>0</v>
-      </c>
-      <c r="BN51">
-        <v>1</v>
-      </c>
-      <c r="BO51">
-        <v>1</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
         <v>442</v>
       </c>
     </row>
